--- a/HyPAT/backup_datafiles/persistent_permeation_input_variables_backup.xlsx
+++ b/HyPAT/backup_datafiles/persistent_permeation_input_variables_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inl.sharepoint.com/sites/GRP-JoeyWatkins-2020Internship/Shared Documents/General/Permeation/HyPAT Versions/HyPAT 1.4.2 (No Absorption Tab with everything from 2.1.2)/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{9FD1726D-5209-46FE-BBF3-D75629609E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D20DEAFB-0C4E-4704-8D20-E74007B095E7}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="14_{9FD1726D-5209-46FE-BBF3-D75629609E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C149C71E-5528-4654-B449-2B986C5A2702}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="1" r:id="rId1"/>
@@ -703,7 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -730,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -957,6 +959,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e31427f38a75fcdd1783218c0384377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35bb6df2db9f156dbe836cf6fb196ff8" ns2:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
@@ -1114,23 +1131,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137A3E86-3060-48D0-AF30-BE365F242144}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{261B6842-B61E-4DCA-BE7A-A1A8A250C012}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,5 +1140,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{261B6842-B61E-4DCA-BE7A-A1A8A250C012}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137A3E86-3060-48D0-AF30-BE365F242144}"/>
 </file>
--- a/HyPAT/backup_datafiles/persistent_permeation_input_variables_backup.xlsx
+++ b/HyPAT/backup_datafiles/persistent_permeation_input_variables_backup.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inl.sharepoint.com/sites/GRP-JoeyWatkins-2020Internship/Shared Documents/General/Permeation/HyPAT Versions/HyPAT 1.4.2 (No Absorption Tab with everything from 2.1.2)/datafiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVANGS\Downloads\HyPAT 2.2.0 (Hopefully AP Tab up to speed with PP tab and working)\backup_datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{9FD1726D-5209-46FE-BBF3-D75629609E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C149C71E-5528-4654-B449-2B986C5A2702}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA45A0-B3D8-4D89-9420-475A76A81DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10875" yWindow="-11640" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet6" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Numbers" sheetId="2" r:id="rId2"/>
     <sheet name="MiscInfo" sheetId="3" r:id="rId3"/>
     <sheet name="GasT" sheetId="4" r:id="rId4"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>t</t>
   </si>
@@ -84,20 +84,23 @@
     <t>AR</t>
   </si>
   <si>
-    <t xml:space="preserve">(experiment needs to start when valve goes from 1 to 0, then multiply by -1 and add 1) </t>
-  </si>
-  <si>
     <t>Number of instruments for measuring:</t>
   </si>
   <si>
     <t>GasT</t>
+  </si>
+  <si>
+    <t>Rows in Footer</t>
+  </si>
+  <si>
+    <t>This sheet isn't loaded by HyPAT and is here for the user's convenience</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,15 +490,16 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +524,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +553,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,11 +579,8 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -596,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -616,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -636,11 +643,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,17 +664,17 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -677,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -701,19 +710,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,8 +733,11 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -734,8 +747,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -743,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -751,12 +767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -774,9 +790,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -784,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -792,7 +808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -800,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -808,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
@@ -816,7 +832,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.75</v>
       </c>
@@ -835,34 +851,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.75</v>
       </c>
@@ -878,34 +894,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>133.322</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -921,34 +937,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -959,12 +975,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -973,10 +983,11 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e31427f38a75fcdd1783218c0384377">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35bb6df2db9f156dbe836cf6fb196ff8" ns2:_="">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34b5283cf4dfffaff109746742aa09de">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" xmlns:ns3="ca77b916-f394-4de9-b274-c15ee8638632" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="898ab104950e04c568cc6a94d04fd6c3" ns2:_="" ns3:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
+    <xsd:import namespace="ca77b916-f394-4de9-b274-c15ee8638632"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -989,6 +1000,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1030,6 +1043,28 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0b78db39-37aa-4e28-bb7e-9642684d42d7" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca77b916-f394-4de9-b274-c15ee8638632" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9bdfb1f9-b4f9-4545-a4bc-c42b1cd3b611}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2d7da570-499c-4ae8-bbfb-bca14132ce0c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1131,14 +1166,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa8bfe3d-3fd0-41f5-9c33-87c45324e297">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ca77b916-f394-4de9-b274-c15ee8638632" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{261B6842-B61E-4DCA-BE7A-A1A8A250C012}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B2D95B-1EA9-472C-A46B-8E77C6612AE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B2D95B-1EA9-472C-A46B-8E77C6612AE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{045D173A-BF74-410F-97A1-74E11A9EE8DB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{137A3E86-3060-48D0-AF30-BE365F242144}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{261B6842-B61E-4DCA-BE7A-A1A8A250C012}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>